--- a/Empresa/TabelaFipe.xlsx
+++ b/Empresa/TabelaFipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moltt\Documents\python\Empresa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983C1849-8631-4379-AA8F-3E1BAA82B265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A374C3E-59DE-4E8D-80D1-5BD52E71874E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5F279157-89C8-40CD-9DEF-3F0AB570FE8F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>MARCA</t>
   </si>
@@ -50,57 +50,6 @@
     <t>RENAVAM</t>
   </si>
   <si>
-    <t>00496075667</t>
-  </si>
-  <si>
-    <t>00127826343</t>
-  </si>
-  <si>
-    <t>00872060438</t>
-  </si>
-  <si>
-    <t>00117385000</t>
-  </si>
-  <si>
-    <t>837252245</t>
-  </si>
-  <si>
-    <t>00190881461</t>
-  </si>
-  <si>
-    <t>00569648564</t>
-  </si>
-  <si>
-    <t>14-504049/20A</t>
-  </si>
-  <si>
-    <t>14-789982/21A</t>
-  </si>
-  <si>
-    <t>14-1023557/22</t>
-  </si>
-  <si>
-    <t>14-943697/22</t>
-  </si>
-  <si>
-    <t>14-113661/19C</t>
-  </si>
-  <si>
-    <t>14-808364/21</t>
-  </si>
-  <si>
-    <t>14-936237/22</t>
-  </si>
-  <si>
-    <t>32-658229/21</t>
-  </si>
-  <si>
-    <t>14-1014243/22</t>
-  </si>
-  <si>
-    <t>14-785390/21</t>
-  </si>
-  <si>
     <t>PLACA</t>
   </si>
   <si>
@@ -110,82 +59,64 @@
     <t>FIPE</t>
   </si>
   <si>
-    <t>FFT7309</t>
-  </si>
-  <si>
-    <t>FTF0E66</t>
-  </si>
-  <si>
-    <t>JWB0D34</t>
-  </si>
-  <si>
-    <t>EKL3D73</t>
-  </si>
-  <si>
-    <t>EVI6826</t>
-  </si>
-  <si>
-    <t>ANI1451</t>
-  </si>
-  <si>
-    <t>EEV3G02</t>
-  </si>
-  <si>
-    <t>HAT6G28</t>
-  </si>
-  <si>
-    <t>EDK3B67</t>
-  </si>
-  <si>
-    <t>OQT5997</t>
-  </si>
-  <si>
     <t>Status Aprovação</t>
   </si>
   <si>
-    <t>Fiat</t>
-  </si>
-  <si>
     <t>FIAT</t>
   </si>
   <si>
-    <t>FORD</t>
-  </si>
-  <si>
-    <t>HONDA</t>
-  </si>
-  <si>
-    <t>VW - VolksWagen</t>
-  </si>
-  <si>
-    <t>Fox 1.0 Mi Total Flex 8V 5p</t>
-  </si>
-  <si>
-    <t>Fiesta S 1.0 8V Flex 5p</t>
-  </si>
-  <si>
-    <t>Gol 1.6 Mi Power Total Flex 8V 4p</t>
-  </si>
-  <si>
-    <t>Civic Sedan LXS 1.8/1.8 Flex 16V Aut. 4p</t>
-  </si>
-  <si>
-    <t>Fox City 1.0 Mi/ 1.0Mi Total Flex 8V 5p</t>
-  </si>
-  <si>
-    <t>Fox  1.0 Mi Total Flex 8V 5p</t>
-  </si>
-  <si>
-    <t>Fiesta Sedan 1.6 16V Flex Mec.</t>
-  </si>
-  <si>
-    <t>Fit  LX 1.4/ 1.4 Flex 8V/16V 5p Aut.</t>
-  </si>
-  <si>
-    <t>Idea  Adv./ Adv.LOCK.Dualogic 1.8 Flex 5p</t>
-  </si>
-  <si>
-    <t>Siena  1.0/ EX 1.0 mpi Fire/ Fire Flex 8v</t>
+    <t>UNO ATTRACTIVE 1.0 Fire Flex 8V 5p</t>
+  </si>
+  <si>
+    <t>2019/2019</t>
+  </si>
+  <si>
+    <t>CITROEN</t>
+  </si>
+  <si>
+    <t>C4 - 0P -  - Picasso/Pic. La Luna 2.0 16V  Aut.</t>
+  </si>
+  <si>
+    <t>2010/2010</t>
+  </si>
+  <si>
+    <t>Ducato - 0P -  - MaxiCargo/Furgão Maxi 2.8 TB Dies</t>
+  </si>
+  <si>
+    <t>2009/2009</t>
+  </si>
+  <si>
+    <t>GM - Chevrolet</t>
+  </si>
+  <si>
+    <t>CAPTIVA SPORT FWD 2.4 16V 171/185cv</t>
+  </si>
+  <si>
+    <t>2008/2009</t>
+  </si>
+  <si>
+    <t>Citroën</t>
+  </si>
+  <si>
+    <t>C3 - 0P - Básico - Tendance 1.6 VTi Flex Start 16V Aut.</t>
+  </si>
+  <si>
+    <t>2014/2015</t>
+  </si>
+  <si>
+    <t>14-1132569/22</t>
+  </si>
+  <si>
+    <t>14-1081376/22</t>
+  </si>
+  <si>
+    <t>14-1081377/22</t>
+  </si>
+  <si>
+    <t>14-1081379/22</t>
+  </si>
+  <si>
+    <t>14-1081378/22</t>
   </si>
 </sst>
 </file>
@@ -629,7 +560,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,13 +581,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>0</v>
@@ -668,239 +599,159 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="2">
-        <v>2012</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1014247966</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2014</v>
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2009</v>
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2">
-        <v>168166100</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2009</v>
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2">
-        <v>338639004</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="5" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2011</v>
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2005</v>
-      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2008</v>
-      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2004</v>
-      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2009</v>
-      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="2">
-        <v>2013</v>
-      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>

--- a/Empresa/TabelaFipe.xlsx
+++ b/Empresa/TabelaFipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moltt\Documents\python\Empresa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A374C3E-59DE-4E8D-80D1-5BD52E71874E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50FDB4B-C745-4136-8AE2-0B3567B8B228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5F279157-89C8-40CD-9DEF-3F0AB570FE8F}"/>
   </bookViews>
@@ -123,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +161,14 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -209,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" readingOrder="1"/>
@@ -232,6 +240,9 @@
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +571,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +725,7 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>

--- a/Empresa/TabelaFipe.xlsx
+++ b/Empresa/TabelaFipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moltt\Documents\python\Empresa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50FDB4B-C745-4136-8AE2-0B3567B8B228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033851E6-E524-44CC-81C7-CEC3351B5190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5F279157-89C8-40CD-9DEF-3F0AB570FE8F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>MARCA</t>
   </si>
@@ -62,36 +62,6 @@
     <t>Status Aprovação</t>
   </si>
   <si>
-    <t>FIAT</t>
-  </si>
-  <si>
-    <t>UNO ATTRACTIVE 1.0 Fire Flex 8V 5p</t>
-  </si>
-  <si>
-    <t>2019/2019</t>
-  </si>
-  <si>
-    <t>CITROEN</t>
-  </si>
-  <si>
-    <t>C4 - 0P -  - Picasso/Pic. La Luna 2.0 16V  Aut.</t>
-  </si>
-  <si>
-    <t>2010/2010</t>
-  </si>
-  <si>
-    <t>Ducato - 0P -  - MaxiCargo/Furgão Maxi 2.8 TB Dies</t>
-  </si>
-  <si>
-    <t>2009/2009</t>
-  </si>
-  <si>
-    <t>GM - Chevrolet</t>
-  </si>
-  <si>
-    <t>CAPTIVA SPORT FWD 2.4 16V 171/185cv</t>
-  </si>
-  <si>
     <t>2008/2009</t>
   </si>
   <si>
@@ -104,26 +74,23 @@
     <t>2014/2015</t>
   </si>
   <si>
-    <t>14-1132569/22</t>
-  </si>
-  <si>
     <t>14-1081376/22</t>
   </si>
   <si>
-    <t>14-1081377/22</t>
-  </si>
-  <si>
-    <t>14-1081379/22</t>
-  </si>
-  <si>
-    <t>14-1081378/22</t>
+    <t>42-546399/20</t>
+  </si>
+  <si>
+    <t>VOLKSWAGEN</t>
+  </si>
+  <si>
+    <t>19-320 - 2P - Básico - E Constellation Titan Tractor 2p</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,14 +128,6 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -217,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" readingOrder="1"/>
@@ -229,20 +188,17 @@
       <alignment horizontal="center" vertical="top" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F43D36-E282-4E81-BBF7-0DC98E0C1119}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,13 +556,13 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -618,157 +574,45 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:B11 D2:D11">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A2:B3 D2:D3">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Empresa/TabelaFipe.xlsx
+++ b/Empresa/TabelaFipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moltt\Documents\python\Empresa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033851E6-E524-44CC-81C7-CEC3351B5190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71541C38-742C-422A-A9C9-6B3AC65F574D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5F279157-89C8-40CD-9DEF-3F0AB570FE8F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>MARCA</t>
   </si>
@@ -53,44 +53,62 @@
     <t>PLACA</t>
   </si>
   <si>
-    <t>STATUS DA DÍVIDA</t>
-  </si>
-  <si>
     <t>FIPE</t>
   </si>
   <si>
-    <t>Status Aprovação</t>
-  </si>
-  <si>
-    <t>2008/2009</t>
-  </si>
-  <si>
-    <t>Citroën</t>
-  </si>
-  <si>
-    <t>C3 - 0P - Básico - Tendance 1.6 VTi Flex Start 16V Aut.</t>
-  </si>
-  <si>
-    <t>2014/2015</t>
-  </si>
-  <si>
-    <t>14-1081376/22</t>
-  </si>
-  <si>
-    <t>42-546399/20</t>
-  </si>
-  <si>
-    <t>VOLKSWAGEN</t>
-  </si>
-  <si>
-    <t>19-320 - 2P - Básico - E Constellation Titan Tractor 2p</t>
+    <t>VW - VolksWagen</t>
+  </si>
+  <si>
+    <t>Cor</t>
+  </si>
+  <si>
+    <t>BRANCA</t>
+  </si>
+  <si>
+    <t>14-898522/21</t>
+  </si>
+  <si>
+    <t>00889577102</t>
+  </si>
+  <si>
+    <t>CPI4847</t>
+  </si>
+  <si>
+    <t>Gol - 0P -  - 1.6 Mi</t>
+  </si>
+  <si>
+    <t>2006/2006</t>
+  </si>
+  <si>
+    <t>VERA LUCIA ANACLETO RUIZ</t>
+  </si>
+  <si>
+    <t>14-960983/22</t>
+  </si>
+  <si>
+    <t>00146558316</t>
+  </si>
+  <si>
+    <t>EGV6744</t>
+  </si>
+  <si>
+    <t>Polo 1.6 E-Flex 8V 5p</t>
+  </si>
+  <si>
+    <t>2009/2010</t>
+  </si>
+  <si>
+    <t>PRETA</t>
+  </si>
+  <si>
+    <t>CATIA MARIA DE OLIVEIRA SANTOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,47 +116,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3C3C3C"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -168,42 +161,62 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -527,92 +540,106 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="53.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="4"/>
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:B3 D2:D3">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Empresa/TabelaFipe.xlsx
+++ b/Empresa/TabelaFipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moltt\Documents\python\Empresa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71541C38-742C-422A-A9C9-6B3AC65F574D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA26B068-8B28-4E66-9EB0-F65F9E9EC38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5F279157-89C8-40CD-9DEF-3F0AB570FE8F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>MARCA</t>
   </si>
@@ -80,15 +80,9 @@
     <t>2006/2006</t>
   </si>
   <si>
-    <t>VERA LUCIA ANACLETO RUIZ</t>
-  </si>
-  <si>
     <t>14-960983/22</t>
   </si>
   <si>
-    <t>00146558316</t>
-  </si>
-  <si>
     <t>EGV6744</t>
   </si>
   <si>
@@ -101,7 +95,10 @@
     <t>PRETA</t>
   </si>
   <si>
-    <t>CATIA MARIA DE OLIVEIRA SANTOS</t>
+    <t>DEBITOS</t>
+  </si>
+  <si>
+    <t>DEBITOS TOTAIS</t>
   </si>
 </sst>
 </file>
@@ -131,7 +128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -180,11 +177,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -202,6 +210,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,25 +548,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F43D36-E282-4E81-BBF7-0DC98E0C1119}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="53.7109375" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -580,8 +594,14 @@
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -603,36 +623,35 @@
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1">
+        <v>146558316</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
